--- a/Onódi-Kiss Viktor/TeszteljükLe.xlsx
+++ b/Onódi-Kiss Viktor/TeszteljükLe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okvik\Documents\Programozás projektek\Órai\KiZsi\Eg_12K\Onódi-Kiss Viktor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AAD295-B30D-4B93-BFBA-6327805372DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31680D51-A4D3-4909-998C-4B093FD862EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="852" windowWidth="21492" windowHeight="8964" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="271">
   <si>
     <t>Teszteset száma</t>
   </si>
@@ -2337,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2399,9 +2399,7 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" s="40"/>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2425,9 +2423,7 @@
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="40"/>
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2451,9 +2447,7 @@
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" s="40"/>
       <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2477,9 +2471,7 @@
       <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" s="40"/>
       <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
@@ -2503,9 +2495,7 @@
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" s="40"/>
       <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
@@ -2529,9 +2519,7 @@
       <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" s="40"/>
       <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2555,9 +2543,7 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" s="40"/>
       <c r="H8" s="7">
         <v>3</v>
       </c>
@@ -2581,9 +2567,7 @@
       <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" s="40"/>
       <c r="H9" s="7">
         <v>1</v>
       </c>
@@ -2607,9 +2591,7 @@
       <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" s="40"/>
       <c r="H10" s="7">
         <v>2</v>
       </c>
@@ -2633,9 +2615,7 @@
       <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" s="40"/>
       <c r="H11" s="7" t="s">
         <v>36</v>
       </c>
@@ -2659,9 +2639,7 @@
       <c r="F12" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" s="41"/>
       <c r="H12" s="9" t="s">
         <v>40</v>
       </c>
@@ -2673,9 +2651,7 @@
       <c r="D13" s="59"/>
       <c r="E13" s="60"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3673,22 +3649,8 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{2625E345-0621-4A5A-BB43-B70B2FCA9A7E}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{84629959-A4A4-4012-B208-E53DEB81F60F}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{5C0A8B51-C684-4D60-A7CA-505E024466EE}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{8B8FA5BF-EB09-4D88-B698-87BD30A08839}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{4802D22E-65C7-4259-98B5-D6C154D7E71F}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{922C1449-6182-49B3-815A-38640B24FD63}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId13"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33237,7 +33199,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Onódi-Kiss Viktor/TeszteljükLe.xlsx
+++ b/Onódi-Kiss Viktor/TeszteljükLe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okvik\Documents\Programozás projektek\Órai\KiZsi\Eg_12K\Onódi-Kiss Viktor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31680D51-A4D3-4909-998C-4B093FD862EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AA01AF-1E6A-4579-B8BF-4FCAEFE38420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="272">
   <si>
     <t>Teszteset száma</t>
   </si>
@@ -971,6 +971,9 @@
   <si>
     <t>Test Closure report
  Test metrics</t>
+  </si>
+  <si>
+    <t>(Csatolt screenshot)</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2543,7 +2546,9 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="40" t="s">
+        <v>271</v>
+      </c>
       <c r="H8" s="7">
         <v>3</v>
       </c>
@@ -3649,8 +3654,11 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{30375BE9-CC2B-4B61-ADDF-D955298F6007}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31861,8 +31869,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
